--- a/forwardprimer-v3_23.xlsx
+++ b/forwardprimer-v3_23.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="forwardprimer-v3_23" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>F2113-CAGAGTCTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAGAGTCTCATCGTCGGCAGCGTC</t>
+    <t>F2113-GATCAACTCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATCAACTCGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>F2114-AGAACCAGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAACCAGTTTCGTCGGCAGCGTC</t>
+    <t>F2114-CTCAGATGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCAGATGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>F2115-TACTCGTGGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACTCGTGGTTCGTCGGCAGCGTC</t>
+    <t>F2115-GGTTGCAACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGTTGCAACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>F2116-GAAGGTCACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAAGGTCACATCGTCGGCAGCGTC</t>
+    <t>F2116-GATGTCTCTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATGTCTCTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>F2117-TGAAGTCGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGAAGTCGTCTCGTCGGCAGCGTC</t>
+    <t>F2117-CGTGCTACTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGTGCTACTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>F2118-ACCTTCCTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCTTCCTCTTCGTCGGCAGCGTC</t>
+    <t>F2118-TCCTCGAGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCCTCGAGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>F2119-TACAGTCACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACAGTCACCTCGTCGGCAGCGTC</t>
+    <t>F2119-AGTTGCAGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTTGCAGTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>F2120-CATCTGCATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATCTGCATCTCGTCGGCAGCGTC</t>
+    <t>F2120-AGGTCTCGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGGTCTCGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>F2121-AGGAAGAAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGGAAGAAGGTCGTCGGCAGCGTC</t>
+    <t>F2121-CGTAGAACAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGTAGAACAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>F2122-GAAGAGAGCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAAGAGAGCTTCGTCGGCAGCGTC</t>
+    <t>F2122-TCAGTGACAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCAGTGACAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>F2123-TTCTGCTTCG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCTGCTTCGTCGTCGGCAGCGTC</t>
+    <t>F2123-AACACACTCC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACACACTCCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>F2124-ACTGGTTGTT</t>
+    <t>F2124-ATCCTGACCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCCTGACCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>F2125-CTGTAGTGGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTGTAGTGGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>F2126-TCGAGTTCGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCGAGTTCGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>F2127-AACATGGACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACATGGACATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>F2128-CTCTTCTCTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCTTCTCTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>F2129-ATGGTTCTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGGTTCTTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>F2130-CTTGTGGAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTTGTGGAGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>F2131-TAGAGAGCAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGAGAGCACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>F2132-ACACCATGCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACACCATGCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>F2133-TAGCTCCATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGCTCCATGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>F2134-TAGCATCTGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGCATCTGGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>F2135-CCTACTGTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCTACTGTACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>F2136-ACAGTAGTCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAGTAGTCGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>F2137-GCATGAAGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCATGAAGTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>F2138-TGATGCTGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGATGCTGTATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>F2139-AGAGTCTCCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAGTCTCCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>F2140-AACCATCGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACCATCGAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>F2141-TGTACTCAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTACTCAACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>F2142-GTCTAGCTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCTAGCTGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>F2143-ATGCATGCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGCATGCTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>F2144-TAGCTACTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGCTACTGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>F2145-GCACTGTTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCACTGTTGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>F2146-TCACAGTTGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCACAGTTGCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>F2147-GTGAAGGTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGAAGGTGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>F2148-GTAGTTCTCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTAGTTCTCGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>F2149-AGGTTCGACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGGTTCGACTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>F2150-AACGATGACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACGATGACATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>F2151-ATCTGCAGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCTGCAGTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>F2152-AGTGCATGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTGCATGTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>F2153-GTACATCGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTACATCGAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>F2154-GAGTCAGAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGTCAGAAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>F2155-GGAGAAGATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGAGAAGATCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>F2156-AGGATGCTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGGATGCTTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>F2157-GATGAAGCTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATGAAGCTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>F2158-AGCTCGTAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGCTCGTAGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>F2159-ACAAGTTCCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAAGTTCCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>F2160-AGTTCTCTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTTCTCTCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>F2161-AGTGGATCTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTGGATCTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>F2162-ACGTCCTTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACGTCCTTCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>F2163-TGACACAGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGACACAGAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>F2164-GTTCGTACTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTTCGTACTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>F2165-GCTACTCTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCTACTCTTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>F2166-ACTAGTGGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTAGTGGAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>F2167-AGTACCTCTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTACCTCTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>F2168-GGAGTGACTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGAGTGACTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>F2169-ACTGGTTGTT</t>
   </si>
   <si>
     <t>AATGATACGGCGACCACCGAGATCTACACACTGGTTGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>F2125-AACTGAGTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACTGAGTAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>F2126-ACCTGATCTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCTGATCTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>F2127-CCAACTAGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCAACTAGTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>F2128-CTACGAAGCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTACGAAGCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>F2129-CCACTAGAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCACTAGAAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>F2130-TTGTGAGAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGTGAGAAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>F2131-CTGAAGATCC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTGAAGATCCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>F2132-TCATGGACCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCATGGACCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B9</t>
-  </si>
-  <si>
-    <t>F2133-TAGGTTGATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGGTTGATCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>F2134-ATGCATGCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGCATGCTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B11</t>
-  </si>
-  <si>
-    <t>F2135-AGACACATCG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGACACATCGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B12</t>
-  </si>
-  <si>
-    <t>F2136-GACACAGTAC</t>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>F2170-TCCTTCATCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCCTTCATCGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>F2171-GAGGTTGCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGGTTGCTATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>F2172-GGACTTGATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGACTTGATGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2173-CTTCATCGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTTCATCGTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F2174-TACCACTGGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACCACTGGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F2175-AGTCCATCGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTCCATCGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F2176-GAACACACAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAACACACATTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F2177-ACCTAGAACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACCTAGAACGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>F2178-GACACAGTAC</t>
   </si>
   <si>
     <t>AATGATACGGCGACCACCGAGATCTACACGACACAGTACTCGTCGGCAGCGTC</t>
   </si>
   <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>F2137-AGAGTCTCCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAGTCTCCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>F2138-TCTCAACCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTCAACCAATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>F2139-TGTTCTGACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTTCTGACGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>F2140-CATGCAGCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATGCAGCATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>F2141-ATCGAGGTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCGAGGTTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>F2142-AGATGTGAGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGATGTGAGCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>F2143-AGAGAGTACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAGAGTACATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>F2144-AGGTCGACAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGGTCGACATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>F2145-AACCAAGACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACCAAGACGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>F2146-GACTACATCG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACTACATCGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>F2147-TCAGTGTACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAGTGTACTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>F2148-TAGTGTGGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGTGTGGTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>F2149-TGCTTCACAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGCTTCACACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>F2150-AGTTCCACGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTTCCACGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>F2151-GTTCGAGACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTTCGAGACTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>F2152-CCTGCATCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCTGCATCTATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>F2153-TTGCACTCGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGCACTCGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>F2154-AAGTTCGTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGTTCGTCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>F2155-GAGCTCACTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGCTCACTATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>F2156-CTGATGAGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTGATGAGACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>F2157-TGACAGACAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGACAGACACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>F2158-TCAAGGTAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAAGGTAGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>F2159-TCGATCCTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCGATCCTAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D12</t>
-  </si>
-  <si>
-    <t>F2160-CGAGTGTGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGAGTGTGTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>F2161-TCTGTGTGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTGTGTGTATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>F2162-CAGACATCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAGACATCTATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>F2163-CCATGTTCAA</t>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F2179-ATCAAGGTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCAAGGTCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>F2180-GTGAGTGTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGAGTGTGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>F2181-AAGAGGAACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGAGGAACTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>F2182-TGATCTGTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGATCTGTAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>F2183-AGGTACGTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGGTACGTTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>F2184-GGAAGGATCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGAAGGATCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>F2185-TTGCATCACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGCATCACTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>F2186-TAGAGTCGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGAGTCGAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>F2187-AGAACCTGGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAACCTGGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>F2188-TGTTCCTGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTTCCTGACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>F2189-CACGACAACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCACGACAACTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>F2190-GTAGAAGGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTAGAAGGAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>F2191-CATGCTCTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATGCTCTCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>F2192-TAGTAGACAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGTAGACACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>F2193-GACACAAGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACACAAGTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>F2194-ACACTCCTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACACTCCTCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>F2195-CTAGCTGGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTAGCTGGTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>F2196-GATGGTAGCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATGGTAGCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>F2197-TCTCAGTCCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTCAGTCCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>F2198-TCTTGCACAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTTGCACACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>F2199-CCATCGATCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCATCGATCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>F2200-ATCCAAGGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCCAAGGACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>F2201-CTGACGACTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTGACGACTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H6</t>
+  </si>
+  <si>
+    <t>F2202-GTGATGCTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGATGCTGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H7</t>
+  </si>
+  <si>
+    <t>F2203-AACACGTCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACACGTCAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H8</t>
+  </si>
+  <si>
+    <t>F2204-CCATGTTCAA</t>
   </si>
   <si>
     <t>AATGATACGGCGACCACCGAGATCTACACCCATGTTCAATCGTCGGCAGCGTC</t>
   </si>
   <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>F2164-TGAACCACCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGAACCACCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>F2165-ACGATGAGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACGATGAGATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>F2166-ATCCAGTGGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCCAGTGGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>F2167-TCTAGCAGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTAGCAGATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E8</t>
-  </si>
-  <si>
-    <t>F2168-AAGGTCTTCG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGGTCTTCGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E9</t>
-  </si>
-  <si>
-    <t>F2169-TAGCTTCGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGCTTCGAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E10</t>
-  </si>
-  <si>
-    <t>F2170-TAGAGACTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGAGACTTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E11</t>
-  </si>
-  <si>
-    <t>F2171-GAACAGCTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAACAGCTTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E12</t>
-  </si>
-  <si>
-    <t>F2172-TCGAACAAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCGAACAAGGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>F2173-CATGGAGACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATGGAGACTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>F2174-GACACATGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACACATGAATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>F2175-ACACGATCAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACACGATCAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>F2176-TTCTGCTAGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCTGCTAGCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>F2177-CACTCTGTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCACTCTGTCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F6</t>
-  </si>
-  <si>
-    <t>F2178-TAGGAACCAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGGAACCAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>F2179-ATCAACTTGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCAACTTGGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F8</t>
-  </si>
-  <si>
-    <t>F2180-CTCATCCTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCATCCTACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F9</t>
-  </si>
-  <si>
-    <t>F2181-ACATCCACTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACATCCACTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F10</t>
-  </si>
-  <si>
-    <t>F2182-ACCTCAGTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCTCAGTGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F11</t>
-  </si>
-  <si>
-    <t>F2183-ACGATGTACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACGATGTACCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F12</t>
-  </si>
-  <si>
-    <t>F2184-GATGCTGTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATGCTGTGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>F2185-ACATGAGAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACATGAGAAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>F2186-CAGTTGCTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAGTTGCTCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>F2187-TACGTGCTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACGTGCTGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G4</t>
-  </si>
-  <si>
-    <t>F2188-AGAGCAGTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAGCAGTAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G5</t>
-  </si>
-  <si>
-    <t>F2189-GTGCATGGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGCATGGATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G6</t>
-  </si>
-  <si>
-    <t>F2190-AACACTCCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACACTCCATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G7</t>
-  </si>
-  <si>
-    <t>F2191-ACTGTGTTCG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTGTGTTCGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G8</t>
-  </si>
-  <si>
-    <t>F2192-TACACGAGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACACGAGTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G9</t>
-  </si>
-  <si>
-    <t>F2193-CGAACTCCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGAACTCCTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G10</t>
-  </si>
-  <si>
-    <t>F2194-ACACTACTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACACTACTGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G11</t>
-  </si>
-  <si>
-    <t>F2195-ACACACACAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACACACACAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G12</t>
-  </si>
-  <si>
-    <t>F2196-ACGTACATCG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACGTACATCGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>F2197-AGAGCAACGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAGCAACGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>F2198-AACAAGGAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACAAGGAAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H3</t>
-  </si>
-  <si>
-    <t>F2199-AGAGATGAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAGATGAGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H4</t>
-  </si>
-  <si>
-    <t>F2200-ACAGATCACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAGATCACGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H5</t>
-  </si>
-  <si>
-    <t>F2201-CCTCTCATCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCTCTCATCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H6</t>
-  </si>
-  <si>
-    <t>F2202-GTGATCACAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGATCACACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H7</t>
-  </si>
-  <si>
-    <t>F2203-AAGGACAAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGGACAAGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H8</t>
-  </si>
-  <si>
-    <t>F2204-TAGTCAGTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGTCAGTGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
     <t>H9</t>
   </si>
   <si>
-    <t>F2205-ATGATCAGCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGATCAGCATCGTCGGCAGCGTC</t>
+    <t>F2205-AGTACGACTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTACGACTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>F2206-CTCGTTCGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCGTTCGTATCGTCGGCAGCGTC</t>
+    <t>F2206-ACAACACAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAACACAACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>F2207-TTCACCTACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCACCTACGTCGTCGGCAGCGTC</t>
+    <t>F2207-CGACTAGACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGACTAGACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>F2208-CCTAGCAGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCTAGCAGTATCGTCGGCAGCGTC</t>
+    <t>F2208-TGATGCAACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGATGCAACATCGTCGGCAGCGTC</t>
   </si>
 </sst>
 </file>
